--- a/CONES MÊS DE AGOSTO.xlsx
+++ b/CONES MÊS DE AGOSTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humbe\OneDrive\Área de Trabalho\SENAC\Senac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACDBDD8-03CB-425C-A4BC-F925B0D26756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A00C93A-2B48-49F6-9E45-306BB6031B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{3DFEFA52-7EC9-4B8B-92BC-36D76E2F2E1C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>KASKETE BISCOITO 75G BARION</t>
   </si>
@@ -188,9 +188,6 @@
     <t>TOTAL GERAL</t>
   </si>
   <si>
-    <t>TOTAL INVESTITO</t>
-  </si>
-  <si>
     <t>TOTAL VENDIDO</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>LUCRO PRÉ-VISTO</t>
+  </si>
+  <si>
+    <t>TOTAL INVESTIDO</t>
   </si>
 </sst>
 </file>
@@ -274,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -289,9 +289,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -336,17 +333,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -684,494 +689,494 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>45150</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>3</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>7.25</v>
       </c>
-      <c r="E2" s="15">
-        <f>C2*D2</f>
+      <c r="E2" s="14">
+        <f t="shared" ref="E2:E25" si="0">C2*D2</f>
         <v>21.75</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <f>SUM(E2:E83)</f>
         <v>542.46</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>45152</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>1</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>46.68</v>
       </c>
-      <c r="E3" s="15">
-        <f>C3*D3</f>
+      <c r="E3" s="14">
+        <f t="shared" si="0"/>
         <v>46.68</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>45152</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>46.66</v>
       </c>
-      <c r="E4" s="15">
-        <f>C4*D4</f>
+      <c r="E4" s="14">
+        <f t="shared" si="0"/>
         <v>46.66</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>45152</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>1</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>46.66</v>
       </c>
-      <c r="E5" s="15">
-        <f>C5*D5</f>
+      <c r="E5" s="14">
+        <f t="shared" si="0"/>
         <v>46.66</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>45153</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>1</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>8.43</v>
       </c>
-      <c r="E6" s="16">
-        <f>C6*D6</f>
+      <c r="E6" s="15">
+        <f t="shared" si="0"/>
         <v>8.43</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>45153</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>8.42</v>
       </c>
-      <c r="E7" s="16">
-        <f>C7*D7</f>
+      <c r="E7" s="15">
+        <f t="shared" si="0"/>
         <v>8.42</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>45158</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>5</v>
       </c>
-      <c r="E8" s="15">
-        <f>C8*D8</f>
+      <c r="E8" s="14">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>45158</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>1</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>7</v>
       </c>
-      <c r="E9" s="15">
-        <f>C9*D9</f>
+      <c r="E9" s="14">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>45157</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>21.3</v>
       </c>
-      <c r="E10" s="15">
-        <f>C10*D10</f>
+      <c r="E10" s="14">
+        <f t="shared" si="0"/>
         <v>21.3</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>45157</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11">
         <v>1</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>39.6</v>
       </c>
-      <c r="E11" s="15">
-        <f>C11*D11</f>
+      <c r="E11" s="14">
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>45157</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>4</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>3.7</v>
       </c>
-      <c r="E12" s="15">
-        <f>C12*D12</f>
+      <c r="E12" s="14">
+        <f t="shared" si="0"/>
         <v>14.8</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>45157</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>1</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>8.65</v>
       </c>
-      <c r="E13" s="15">
-        <f>C13*D13</f>
+      <c r="E13" s="14">
+        <f t="shared" si="0"/>
         <v>8.65</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>45157</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>1</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>7.3</v>
       </c>
-      <c r="E14" s="15">
-        <f>C14*D14</f>
+      <c r="E14" s="14">
+        <f t="shared" si="0"/>
         <v>7.3</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>45157</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>1</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>7.49</v>
       </c>
-      <c r="E15" s="15">
-        <f>C15*D15</f>
+      <c r="E15" s="14">
+        <f t="shared" si="0"/>
         <v>7.49</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>45157</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>4</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>0.1</v>
       </c>
-      <c r="E16" s="15">
-        <f>C16*D16</f>
+      <c r="E16" s="14">
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>45164</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>3</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>15.89</v>
       </c>
-      <c r="E17" s="15">
-        <f>C17*D17</f>
+      <c r="E17" s="14">
+        <f t="shared" si="0"/>
         <v>47.67</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>45164</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>1</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>15.9</v>
       </c>
-      <c r="E18" s="15">
-        <f>C18*D18</f>
+      <c r="E18" s="14">
+        <f t="shared" si="0"/>
         <v>15.9</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>45164</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>5</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>6.69</v>
       </c>
-      <c r="E19" s="15">
-        <f>C19*D19</f>
+      <c r="E19" s="14">
+        <f t="shared" si="0"/>
         <v>33.450000000000003</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>45164</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>2</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>59.9</v>
       </c>
-      <c r="E20" s="15">
-        <f>C20*D20</f>
+      <c r="E20" s="14">
+        <f t="shared" si="0"/>
         <v>119.8</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>45165</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>1</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>7</v>
       </c>
-      <c r="E21" s="15">
-        <f>C21*D21</f>
+      <c r="E21" s="14">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>45165</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>1</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>7</v>
       </c>
-      <c r="E22" s="15">
-        <f>C22*D22</f>
+      <c r="E22" s="14">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+      <c r="A23" s="16">
         <v>45165</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>1</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>4</v>
       </c>
-      <c r="E23" s="15">
-        <f>C23*D23</f>
+      <c r="E23" s="14">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="16">
         <v>45165</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>2</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <v>7.5</v>
       </c>
-      <c r="E24" s="15">
-        <f>C24*D24</f>
+      <c r="E24" s="14">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
+      <c r="A25" s="16">
         <v>45165</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>1</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <v>2.5</v>
       </c>
-      <c r="E25" s="15">
-        <f>C25*D25</f>
+      <c r="E25" s="14">
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="3"/>
     </row>
     <row r="43" spans="15:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1496,7 +1501,7 @@
       <c r="Y66" s="3"/>
     </row>
     <row r="67" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="10"/>
+      <c r="E67" s="9"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -1519,7 +1524,7 @@
       <c r="Y67" s="3"/>
     </row>
     <row r="68" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="10"/>
+      <c r="E68" s="9"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -1542,7 +1547,7 @@
       <c r="Y68" s="3"/>
     </row>
     <row r="69" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="10"/>
+      <c r="E69" s="9"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -1565,7 +1570,7 @@
       <c r="Y69" s="3"/>
     </row>
     <row r="70" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="10"/>
+      <c r="E70" s="9"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -1589,9 +1594,9 @@
     </row>
     <row r="71" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="3"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -1615,9 +1620,9 @@
     </row>
     <row r="72" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="3"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -1641,9 +1646,9 @@
     </row>
     <row r="73" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="3"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -1667,9 +1672,9 @@
     </row>
     <row r="74" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="3"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -1693,9 +1698,9 @@
     </row>
     <row r="75" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="3"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -1719,9 +1724,9 @@
     </row>
     <row r="76" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="3"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -1745,9 +1750,9 @@
     </row>
     <row r="77" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="3"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -1771,9 +1776,9 @@
     </row>
     <row r="78" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="3"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -1797,9 +1802,9 @@
     </row>
     <row r="79" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="3"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -1823,9 +1828,9 @@
     </row>
     <row r="80" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="3"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -1849,9 +1854,9 @@
     </row>
     <row r="81" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="3"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -1875,9 +1880,9 @@
     </row>
     <row r="82" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="3"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -1901,9 +1906,9 @@
     </row>
     <row r="83" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="3"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -1995,19 +2000,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -2022,19 +2027,19 @@
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>45152</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <v>4</v>
       </c>
-      <c r="D2" s="15">
-        <v>10</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="D2" s="14">
+        <v>10</v>
+      </c>
+      <c r="E2" s="14">
         <f>C2*D2</f>
         <v>40</v>
       </c>
@@ -2042,7 +2047,7 @@
         <f>SUM(E2:E64)</f>
         <v>660</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -2050,24 +2055,24 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>45152</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>4</v>
       </c>
-      <c r="D3" s="15">
-        <v>10</v>
-      </c>
-      <c r="E3" s="15">
+      <c r="D3" s="14">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14">
         <f t="shared" ref="E3:E17" si="0">C3*D3</f>
         <v>40</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -2075,24 +2080,24 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>45152</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>3</v>
       </c>
-      <c r="D4" s="15">
-        <v>10</v>
-      </c>
-      <c r="E4" s="15">
+      <c r="D4" s="14">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -2100,24 +2105,24 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>45159</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>5</v>
       </c>
-      <c r="D5" s="13">
-        <v>10</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="D5" s="12">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -2125,24 +2130,24 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>45159</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>5</v>
       </c>
-      <c r="D6" s="13">
-        <v>10</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="D6" s="12">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -2152,25 +2157,25 @@
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>45159</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>3</v>
       </c>
-      <c r="D7" s="13">
-        <v>10</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="D7" s="12">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -2180,25 +2185,25 @@
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>45159</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>2</v>
       </c>
-      <c r="D8" s="13">
-        <v>10</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="D8" s="12">
+        <v>10</v>
+      </c>
+      <c r="E8" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -2208,19 +2213,19 @@
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>45159</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>3</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>15</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -2236,19 +2241,19 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>45163</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>3</v>
       </c>
-      <c r="D10" s="15">
-        <v>10</v>
-      </c>
-      <c r="E10" s="15">
+      <c r="D10" s="14">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -2264,19 +2269,19 @@
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>45163</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>3</v>
       </c>
-      <c r="D11" s="15">
-        <v>10</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="D11" s="14">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -2292,19 +2297,19 @@
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>45163</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>3</v>
       </c>
-      <c r="D12" s="15">
-        <v>10</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="D12" s="14">
+        <v>10</v>
+      </c>
+      <c r="E12" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -2320,19 +2325,19 @@
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
+      <c r="A13" s="23">
         <v>45165</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>7</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>5</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -2348,19 +2353,19 @@
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>45165</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>7</v>
       </c>
-      <c r="D14" s="13">
-        <v>10</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="D14" s="12">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -2376,19 +2381,19 @@
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
+      <c r="A15" s="23">
         <v>45165</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>4</v>
       </c>
-      <c r="D15" s="13">
-        <v>10</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="D15" s="12">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -2404,19 +2409,19 @@
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
+      <c r="A16" s="23">
         <v>45165</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>6</v>
       </c>
-      <c r="D16" s="13">
-        <v>10</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="D16" s="12">
+        <v>10</v>
+      </c>
+      <c r="E16" s="14">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -2432,19 +2437,19 @@
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
+      <c r="A17" s="23">
         <v>45165</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>6</v>
       </c>
-      <c r="D17" s="13">
-        <v>10</v>
-      </c>
-      <c r="E17" s="15">
+      <c r="D17" s="12">
+        <v>10</v>
+      </c>
+      <c r="E17" s="14">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -2460,11 +2465,11 @@
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2475,11 +2480,11 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2490,11 +2495,11 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2509,11 +2514,11 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2528,11 +2533,11 @@
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2547,11 +2552,11 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2566,11 +2571,11 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2585,9 +2590,9 @@
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2602,9 +2607,9 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2619,9 +2624,9 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2636,9 +2641,9 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2653,9 +2658,9 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -2673,8 +2678,8 @@
       <c r="T29" s="3"/>
     </row>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -2729,9 +2734,9 @@
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -2749,11 +2754,11 @@
       <c r="T36" s="3"/>
     </row>
     <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -2771,11 +2776,11 @@
       <c r="T37" s="3"/>
     </row>
     <row r="38" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -2793,11 +2798,11 @@
       <c r="T38" s="3"/>
     </row>
     <row r="39" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="7"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -2877,10 +2882,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2013A93E-9054-4A71-B257-A7FEE0321DCE}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,97 +2893,145 @@
     <col min="1" max="1" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>45166</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="10">
         <v>3</v>
       </c>
-      <c r="D2" s="19">
-        <v>10</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="D2" s="14">
+        <v>10</v>
+      </c>
+      <c r="E2" s="14">
         <f>C2*D2</f>
         <v>30</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <f>SUM(E2:E42)</f>
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>45166</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="10">
         <v>3</v>
       </c>
-      <c r="D3" s="19">
-        <v>10</v>
-      </c>
-      <c r="E3" s="19">
-        <f t="shared" ref="E3:E4" si="0">C3*D3</f>
+      <c r="D3" s="14">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14">
+        <f t="shared" ref="E3:E7" si="0">C3*D3</f>
         <v>30</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>45166</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="10">
         <v>4</v>
       </c>
-      <c r="D4" s="19">
-        <v>10</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="D4" s="14">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="15"/>
+      <c r="A5" s="16">
+        <v>45167</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45167</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="30">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>45167</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="30">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2987,15 +3040,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF3B677-F555-4D1F-B731-3D19B45557AB}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -3004,227 +3057,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>45152</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <v>4</v>
       </c>
-      <c r="D2" s="15">
-        <v>10</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="D2" s="14">
+        <v>10</v>
+      </c>
+      <c r="E2" s="14">
         <f>C2*D2</f>
         <v>40</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <f>SUM(E2:E42)</f>
-        <v>395</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>45152</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>4</v>
       </c>
-      <c r="D3" s="15">
-        <v>10</v>
-      </c>
-      <c r="E3" s="15">
-        <f t="shared" ref="E3:E12" si="0">C3*D3</f>
+      <c r="D3" s="14">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14">
+        <f t="shared" ref="E3:E17" si="0">C3*D3</f>
         <v>40</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>45152</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>3</v>
       </c>
-      <c r="D4" s="15">
-        <v>10</v>
-      </c>
-      <c r="E4" s="15">
+      <c r="D4" s="14">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>45159</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>5</v>
       </c>
-      <c r="D5" s="13">
-        <v>10</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="D5" s="12">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>45159</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>5</v>
       </c>
-      <c r="D6" s="13">
-        <v>10</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="D6" s="12">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>45159</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>3</v>
       </c>
-      <c r="D7" s="13">
-        <v>10</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="D7" s="12">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>45159</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>2</v>
       </c>
-      <c r="D8" s="13">
-        <v>10</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="D8" s="12">
+        <v>10</v>
+      </c>
+      <c r="E8" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>45159</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>3</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>15</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>45163</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>3</v>
       </c>
-      <c r="D10" s="15">
-        <v>10</v>
-      </c>
-      <c r="E10" s="15">
+      <c r="D10" s="14">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>45163</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>3</v>
       </c>
-      <c r="D11" s="15">
-        <v>10</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="D11" s="14">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>45163</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>3</v>
       </c>
-      <c r="D12" s="15">
-        <v>10</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="D12" s="14">
+        <v>10</v>
+      </c>
+      <c r="E12" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45167</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="26">
+        <v>5</v>
+      </c>
+      <c r="D13" s="15">
+        <v>10</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>45167</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="26">
+        <v>6</v>
+      </c>
+      <c r="D14" s="15">
+        <v>10</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>45167</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="26">
+        <v>4</v>
+      </c>
+      <c r="D15" s="15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>45167</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="26">
+        <v>3</v>
+      </c>
+      <c r="D16" s="15">
+        <v>10</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>45167</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="26">
+        <v>3</v>
+      </c>
+      <c r="D17" s="15">
+        <v>8</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3237,14 +3380,14 @@
   <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
@@ -3253,22 +3396,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G1" t="s">
@@ -3279,22 +3422,22 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27">
+      <c r="A2" s="24">
         <v>45166</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="15">
-        <v>10</v>
-      </c>
-      <c r="E2" s="23">
+      <c r="D2" s="14">
+        <v>10</v>
+      </c>
+      <c r="E2" s="22">
         <v>38</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>395</v>
       </c>
       <c r="G2" s="2">
@@ -3310,22 +3453,22 @@
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27">
+      <c r="A3" s="24">
         <v>45166</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="15">
-        <v>10</v>
-      </c>
-      <c r="E3" s="23">
-        <v>10</v>
-      </c>
-      <c r="F3" s="18">
+      <c r="D3" s="14">
+        <v>10</v>
+      </c>
+      <c r="E3" s="22">
+        <v>10</v>
+      </c>
+      <c r="F3" s="17">
         <v>100</v>
       </c>
       <c r="V3" s="3"/>
@@ -3337,22 +3480,22 @@
       <c r="AE3" s="3"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>45166</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="15">
-        <v>10</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="D4" s="14">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>10</v>
       </c>
       <c r="S4" s="3"/>
@@ -3368,22 +3511,22 @@
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>45166</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="15">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D5" s="14">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10">
         <v>2</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>20</v>
       </c>
       <c r="S5" s="3"/>
@@ -3399,22 +3542,22 @@
       <c r="AE5" s="3"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>45166</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>5</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="25">
         <v>1</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>5</v>
       </c>
       <c r="S6" s="3"/>
@@ -3461,8 +3604,8 @@
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3474,7 +3617,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3487,29 +3630,29 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1">
         <v>542.46</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="18">
-        <f>395+35</f>
-        <v>430</v>
-      </c>
-      <c r="D2" s="14">
+        <v>52</v>
+      </c>
+      <c r="B2" s="17">
+        <f>395+35+100+24+150</f>
+        <v>704</v>
+      </c>
+      <c r="D2" s="13">
         <f>B2-B1</f>
-        <v>-112.46000000000004</v>
+        <v>161.53999999999996</v>
       </c>
       <c r="F2" s="2">
         <f>B3-B1</f>
@@ -3518,15 +3661,15 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="9">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8">
         <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
+      <c r="B5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
